--- a/xlsx/resource.xlsx
+++ b/xlsx/resource.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="15320" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="15320" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>资源id</t>
   </si>
@@ -133,6 +134,9 @@
   <si>
     <t>/config/v1/query
 /config/v1/query1</t>
+  </si>
+  <si>
+    <t>abcccc</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1346,6 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -1450,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1494,4 +1497,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22.2692307692308" customWidth="1"/>
+    <col min="2" max="2" width="32.2019230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>